--- a/docs/us-core-organization.xlsx
+++ b/docs/us-core-organization.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$57</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1654" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="389">
   <si>
     <t>Path</t>
   </si>
@@ -357,6 +357,13 @@
     <t>Organizations are known by a variety of ids. Some institutions maintain several, and most collect identifiers for exchange with other organizations concerning the organization.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
     <t xml:space="preserve">org-1
 </t>
   </si>
@@ -373,6 +380,12 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>npi</t>
+  </si>
+  <si>
+    <t>National Provider Identifier (NPI)</t>
+  </si>
+  <si>
     <t>Organization.identifier.id</t>
   </si>
   <si>
@@ -402,9 +415,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -487,6 +497,9 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/sid/us-npi</t>
+  </si>
+  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
@@ -509,9 +522,6 @@
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
   </si>
   <si>
     <t>123456</t>
@@ -580,6 +590,15 @@
   </si>
   <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>clia</t>
+  </si>
+  <si>
+    <t>Clinical Laboratory Improvement Amendments (CLIA) Number for laboratories</t>
+  </si>
+  <si>
+    <t>urn:oid:2.16.840.1.113883.4.7</t>
   </si>
   <si>
     <t>Organization.active</t>
@@ -1355,7 +1374,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM47"/>
+  <dimension ref="A1:AM57"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2521,7 +2540,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>104</v>
       </c>
@@ -2531,7 +2550,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>42</v>
@@ -2593,16 +2612,14 @@
         <v>40</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="AB11" s="2"/>
       <c r="AC11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>104</v>
@@ -2614,29 +2631,31 @@
         <v>42</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="C12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2648,25 +2667,27 @@
         <v>49</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="N12" t="s" s="2">
+        <v>108</v>
+      </c>
       <c r="O12" t="s" s="2">
         <v>40</v>
       </c>
@@ -2714,47 +2735,47 @@
         <v>40</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>40</v>
@@ -2766,17 +2787,15 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>40</v>
@@ -2813,25 +2832,25 @@
         <v>40</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
         <v>122</v>
       </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>124</v>
-      </c>
       <c r="AF13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>40</v>
@@ -2846,7 +2865,7 @@
         <v>40</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>40</v>
@@ -2854,43 +2873,41 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>129</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>40</v>
       </c>
@@ -2914,37 +2931,37 @@
         <v>40</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>131</v>
+        <v>40</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>132</v>
+        <v>40</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>40</v>
@@ -2956,10 +2973,10 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>91</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>40</v>
@@ -2967,7 +2984,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2984,25 +3001,25 @@
         <v>40</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>40</v>
@@ -3027,13 +3044,13 @@
         <v>40</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>40</v>
@@ -3051,7 +3068,7 @@
         <v>40</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3069,18 +3086,18 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>145</v>
+        <v>91</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3088,13 +3105,13 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -3103,19 +3120,19 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3128,7 +3145,7 @@
         <v>40</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>40</v>
@@ -3140,13 +3157,13 @@
         <v>40</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>40</v>
@@ -3164,7 +3181,7 @@
         <v>40</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3179,21 +3196,21 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>153</v>
+        <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3207,7 +3224,7 @@
         <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>40</v>
@@ -3216,30 +3233,32 @@
         <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="R17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>40</v>
@@ -3275,7 +3294,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3290,21 +3309,21 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3318,7 +3337,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>40</v>
@@ -3327,15 +3346,17 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>166</v>
+        <v>119</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
@@ -3348,7 +3369,7 @@
         <v>40</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>40</v>
@@ -3384,7 +3405,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3399,13 +3420,13 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>40</v>
@@ -3413,7 +3434,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3436,17 +3457,15 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3495,7 +3514,7 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3510,21 +3529,21 @@
         <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3532,41 +3551,37 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P20" t="s" s="2">
-        <v>188</v>
-      </c>
+      <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3610,7 +3625,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3625,23 +3640,25 @@
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>192</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>185</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>40</v>
       </c>
@@ -3650,10 +3667,10 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>40</v>
@@ -3662,19 +3679,17 @@
         <v>50</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>197</v>
+        <v>108</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3699,13 +3714,13 @@
         <v>40</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>198</v>
+        <v>40</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>40</v>
@@ -3723,7 +3738,7 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>193</v>
+        <v>104</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3732,27 +3747,27 @@
         <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>201</v>
+        <v>113</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>202</v>
+        <v>114</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>203</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3760,35 +3775,31 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>205</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3836,7 +3847,7 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3845,19 +3856,19 @@
         <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
@@ -3865,11 +3876,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>212</v>
+        <v>123</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -3888,20 +3899,18 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>213</v>
+        <v>95</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>214</v>
+        <v>124</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3937,19 +3946,19 @@
         <v>40</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>212</v>
+        <v>127</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3970,15 +3979,15 @@
         <v>40</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>211</v>
+        <v>112</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>217</v>
+        <v>128</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3986,34 +3995,34 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F24" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>218</v>
+        <v>68</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>219</v>
+        <v>129</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>220</v>
+        <v>130</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>221</v>
+        <v>131</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>222</v>
+        <v>132</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
@@ -4038,13 +4047,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -4062,36 +4071,36 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>217</v>
+        <v>136</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>226</v>
+        <v>91</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>228</v>
+        <v>138</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4099,34 +4108,34 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F25" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="F25" t="s" s="2">
-        <v>42</v>
-      </c>
       <c r="G25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>229</v>
+        <v>139</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>141</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>142</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>143</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
@@ -4151,13 +4160,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4175,36 +4184,36 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>234</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>235</v>
+        <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>148</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>137</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>149</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4218,37 +4227,41 @@
         <v>49</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>116</v>
+        <v>150</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>153</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>187</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>40</v>
@@ -4284,7 +4297,7 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4299,53 +4312,53 @@
         <v>40</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>40</v>
+        <v>157</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>110</v>
+        <v>159</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>95</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>97</v>
+        <v>152</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4359,7 +4372,7 @@
         <v>40</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>163</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>40</v>
@@ -4383,25 +4396,25 @@
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>121</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4410,13 +4423,13 @@
         <v>40</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>40</v>
+        <v>166</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4424,7 +4437,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>240</v>
+        <v>168</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4441,26 +4454,22 @@
         <v>40</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>241</v>
+        <v>170</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4472,7 +4481,7 @@
         <v>40</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>40</v>
@@ -4484,13 +4493,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>246</v>
+        <v>40</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>247</v>
+        <v>40</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4508,7 +4517,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>248</v>
+        <v>172</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4523,13 +4532,13 @@
         <v>40</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>173</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>174</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>251</v>
+        <v>175</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>40</v>
@@ -4537,7 +4546,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4560,16 +4569,16 @@
         <v>50</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>68</v>
+        <v>177</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>253</v>
+        <v>178</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>254</v>
+        <v>179</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>255</v>
+        <v>180</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4583,7 +4592,7 @@
         <v>40</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>40</v>
@@ -4595,13 +4604,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>257</v>
+        <v>40</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>258</v>
+        <v>40</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4619,7 +4628,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4634,21 +4643,21 @@
         <v>40</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>251</v>
+        <v>184</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>188</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4656,39 +4665,41 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>49</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>190</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>191</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>264</v>
+        <v>192</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>193</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="P30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>194</v>
+      </c>
       <c r="Q30" t="s" s="2">
         <v>40</v>
       </c>
@@ -4696,7 +4707,7 @@
         <v>40</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="T30" t="s" s="2">
         <v>40</v>
@@ -4732,7 +4743,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>267</v>
+        <v>188</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4747,21 +4758,21 @@
         <v>40</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>268</v>
+        <v>196</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>269</v>
+        <v>197</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>198</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>270</v>
+        <v>199</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4772,10 +4783,10 @@
         <v>41</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4784,16 +4795,20 @@
         <v>50</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>272</v>
+        <v>200</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
       </c>
@@ -4805,7 +4820,7 @@
         <v>40</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="T31" t="s" s="2">
         <v>40</v>
@@ -4817,13 +4832,13 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>204</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
@@ -4841,7 +4856,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>275</v>
+        <v>199</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4856,29 +4871,29 @@
         <v>40</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>276</v>
+        <v>112</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>277</v>
+        <v>207</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>210</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>280</v>
+        <v>40</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>49</v>
@@ -4893,16 +4908,20 @@
         <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>211</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>214</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4914,7 +4933,7 @@
         <v>40</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="T32" t="s" s="2">
         <v>40</v>
@@ -4950,7 +4969,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>284</v>
+        <v>210</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4959,19 +4978,19 @@
         <v>49</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>285</v>
+        <v>215</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>287</v>
+        <v>217</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4979,18 +4998,18 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>289</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4999,21 +5018,23 @@
         <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>290</v>
+        <v>219</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>291</v>
+        <v>220</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
       </c>
@@ -5025,7 +5046,7 @@
         <v>40</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>293</v>
+        <v>40</v>
       </c>
       <c r="T33" t="s" s="2">
         <v>40</v>
@@ -5061,13 +5082,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>294</v>
+        <v>218</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5079,10 +5100,10 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>295</v>
+        <v>40</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>296</v>
+        <v>217</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -5090,18 +5111,18 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>297</v>
+        <v>223</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>298</v>
+        <v>40</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>50</v>
@@ -5110,19 +5131,23 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>115</v>
+        <v>224</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>299</v>
+        <v>225</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5146,13 +5171,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>301</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5170,28 +5195,28 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>303</v>
+        <v>223</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>40</v>
+        <v>230</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>306</v>
+        <v>233</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>40</v>
@@ -5199,18 +5224,18 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>50</v>
@@ -5219,19 +5244,23 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>309</v>
+        <v>236</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>40</v>
       </c>
@@ -5243,7 +5272,7 @@
         <v>40</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>311</v>
+        <v>40</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>40</v>
@@ -5279,36 +5308,36 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>234</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>313</v>
+        <v>112</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>314</v>
+        <v>242</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>315</v>
+        <v>243</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>316</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5322,26 +5351,24 @@
         <v>49</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>317</v>
+        <v>120</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>319</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>40</v>
@@ -5390,7 +5417,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>320</v>
+        <v>122</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5405,13 +5432,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>321</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>323</v>
+        <v>112</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5419,18 +5446,18 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>40</v>
@@ -5439,21 +5466,21 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>325</v>
+        <v>95</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5465,7 +5492,7 @@
         <v>40</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>328</v>
+        <v>40</v>
       </c>
       <c r="T37" t="s" s="2">
         <v>40</v>
@@ -5489,25 +5516,25 @@
         <v>40</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5516,13 +5543,13 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>331</v>
+        <v>112</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5530,7 +5557,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>332</v>
+        <v>246</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5547,23 +5574,25 @@
         <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>174</v>
+        <v>68</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N38" t="s" s="2">
-        <v>335</v>
+        <v>250</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5576,7 +5605,7 @@
         <v>40</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>251</v>
       </c>
       <c r="T38" t="s" s="2">
         <v>40</v>
@@ -5588,13 +5617,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>253</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5612,7 +5641,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>332</v>
+        <v>254</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5627,13 +5656,13 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>110</v>
+        <v>255</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>190</v>
+        <v>256</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5641,7 +5670,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>258</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5652,7 +5681,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>40</v>
@@ -5661,23 +5690,21 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>342</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
@@ -5689,7 +5716,7 @@
         <v>40</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>40</v>
@@ -5701,13 +5728,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5725,28 +5752,28 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>343</v>
+        <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>257</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>40</v>
@@ -5754,7 +5781,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>345</v>
+        <v>267</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5774,19 +5801,23 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>116</v>
+        <v>268</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5798,7 +5829,7 @@
         <v>40</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>40</v>
@@ -5834,7 +5865,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>118</v>
+        <v>273</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5852,51 +5883,49 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>110</v>
+        <v>275</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>277</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>95</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>97</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5909,7 +5938,7 @@
         <v>40</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>40</v>
@@ -5945,7 +5974,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>124</v>
+        <v>281</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5960,57 +5989,53 @@
         <v>40</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>282</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>40</v>
+        <v>283</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>110</v>
+        <v>284</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>285</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>348</v>
+        <v>286</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>50</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>349</v>
+        <v>287</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
@@ -6022,7 +6047,7 @@
         <v>40</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>40</v>
@@ -6058,13 +6083,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6073,13 +6098,13 @@
         <v>40</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>91</v>
+        <v>293</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>40</v>
@@ -6087,11 +6112,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>352</v>
+        <v>294</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6107,21 +6132,21 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>353</v>
+        <v>296</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6133,7 +6158,7 @@
         <v>40</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>40</v>
@@ -6145,13 +6170,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>141</v>
+        <v>40</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>356</v>
+        <v>40</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>357</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6169,7 +6194,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>352</v>
+        <v>300</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6187,22 +6212,22 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>40</v>
+        <v>301</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6212,27 +6237,25 @@
         <v>49</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>360</v>
+        <v>119</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>306</v>
       </c>
       <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>363</v>
-      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6256,13 +6279,13 @@
         <v>40</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>307</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>308</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6280,7 +6303,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6295,55 +6318,53 @@
         <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>310</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>313</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>218</v>
+        <v>119</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6355,7 +6376,7 @@
         <v>40</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="T45" t="s" s="2">
         <v>40</v>
@@ -6391,13 +6412,13 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>366</v>
+        <v>318</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
@@ -6406,21 +6427,21 @@
         <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>319</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>370</v>
+        <v>320</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>371</v>
+        <v>321</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>322</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6434,27 +6455,27 @@
         <v>49</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>229</v>
+        <v>119</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6502,7 +6523,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>372</v>
+        <v>326</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6517,21 +6538,21 @@
         <v>40</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>378</v>
+        <v>330</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6542,29 +6563,29 @@
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J47" t="s" s="2">
-        <v>379</v>
+        <v>169</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>380</v>
+        <v>331</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6577,7 +6598,7 @@
         <v>40</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>334</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>40</v>
@@ -6613,35 +6634,1147 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P48" s="2"/>
+      <c r="Q48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="M55" s="2"/>
+      <c r="N55" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG47" t="s" s="2">
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F57" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AM47" t="s" s="2">
+      <c r="G57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM47">
+  <autoFilter ref="A1:AM57">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6651,7 +7784,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI46">
+  <conditionalFormatting sqref="A2:AI56">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
